--- a/SchedulingData/dynamic13/pso/scheduling2_8.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling2_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,135 +462,135 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>219.42</v>
+        <v>238.96</v>
       </c>
       <c r="D2" t="n">
-        <v>294.44</v>
+        <v>298.24</v>
       </c>
       <c r="E2" t="n">
-        <v>14.036</v>
+        <v>13.316</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>220.46</v>
+        <v>248.76</v>
       </c>
       <c r="D3" t="n">
-        <v>285.86</v>
+        <v>294.92</v>
       </c>
       <c r="E3" t="n">
-        <v>12.584</v>
+        <v>12.608</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>240.84</v>
+        <v>238.12</v>
       </c>
       <c r="D4" t="n">
-        <v>308.28</v>
+        <v>308.44</v>
       </c>
       <c r="E4" t="n">
-        <v>13.272</v>
+        <v>14.316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>230.16</v>
+        <v>267.7</v>
       </c>
       <c r="D5" t="n">
-        <v>293.76</v>
+        <v>316.16</v>
       </c>
       <c r="E5" t="n">
-        <v>11.264</v>
+        <v>10.164</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>294.44</v>
+        <v>212.66</v>
       </c>
       <c r="D6" t="n">
-        <v>346.64</v>
+        <v>249.06</v>
       </c>
       <c r="E6" t="n">
-        <v>9.956</v>
+        <v>13.284</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>308.28</v>
+        <v>294.92</v>
       </c>
       <c r="D7" t="n">
-        <v>362.8</v>
+        <v>352.1</v>
       </c>
       <c r="E7" t="n">
-        <v>10.94</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>212.66</v>
+        <v>316.16</v>
       </c>
       <c r="D8" t="n">
-        <v>264.86</v>
+        <v>359.7</v>
       </c>
       <c r="E8" t="n">
-        <v>18.464</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="9">
@@ -599,131 +599,131 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>285.86</v>
+        <v>298.24</v>
       </c>
       <c r="D9" t="n">
-        <v>326.06</v>
+        <v>380.34</v>
       </c>
       <c r="E9" t="n">
-        <v>10.184</v>
+        <v>10.196</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>326.06</v>
+        <v>237.66</v>
       </c>
       <c r="D10" t="n">
-        <v>368.66</v>
+        <v>305.46</v>
       </c>
       <c r="E10" t="n">
-        <v>7.064</v>
+        <v>10.604</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>293.76</v>
+        <v>352.1</v>
       </c>
       <c r="D11" t="n">
-        <v>348.24</v>
+        <v>392.16</v>
       </c>
       <c r="E11" t="n">
-        <v>8.456</v>
+        <v>6.644</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>236.54</v>
+        <v>305.46</v>
       </c>
       <c r="D12" t="n">
-        <v>285.18</v>
+        <v>369.34</v>
       </c>
       <c r="E12" t="n">
-        <v>12.632</v>
+        <v>7.796</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>368.66</v>
+        <v>369.34</v>
       </c>
       <c r="D13" t="n">
-        <v>423.74</v>
+        <v>410.32</v>
       </c>
       <c r="E13" t="n">
-        <v>3.676</v>
+        <v>4.828</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>348.24</v>
+        <v>380.34</v>
       </c>
       <c r="D14" t="n">
-        <v>387.72</v>
+        <v>439.96</v>
       </c>
       <c r="E14" t="n">
-        <v>5.648</v>
+        <v>7.864</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>264.86</v>
+        <v>308.44</v>
       </c>
       <c r="D15" t="n">
-        <v>331.26</v>
+        <v>395.44</v>
       </c>
       <c r="E15" t="n">
-        <v>15.464</v>
+        <v>10.236</v>
       </c>
     </row>
     <row r="16">
@@ -732,155 +732,155 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>423.74</v>
+        <v>439.96</v>
       </c>
       <c r="D16" t="n">
-        <v>488.3</v>
+        <v>491.32</v>
       </c>
       <c r="E16" t="n">
-        <v>1.3</v>
+        <v>5.368</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>488.3</v>
+        <v>410.32</v>
       </c>
       <c r="D17" t="n">
-        <v>562.6</v>
+        <v>453.54</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>1.636</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>331.26</v>
+        <v>453.54</v>
       </c>
       <c r="D18" t="n">
-        <v>393.74</v>
+        <v>532.17</v>
       </c>
       <c r="E18" t="n">
-        <v>11.816</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>346.64</v>
+        <v>532.17</v>
       </c>
       <c r="D19" t="n">
-        <v>413.54</v>
+        <v>567.25</v>
       </c>
       <c r="E19" t="n">
-        <v>6.876</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>362.8</v>
+        <v>491.32</v>
       </c>
       <c r="D20" t="n">
-        <v>433.72</v>
+        <v>530.84</v>
       </c>
       <c r="E20" t="n">
-        <v>6.988</v>
+        <v>3.036</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>433.72</v>
+        <v>567.25</v>
       </c>
       <c r="D21" t="n">
-        <v>495.84</v>
+        <v>605.45</v>
       </c>
       <c r="E21" t="n">
-        <v>4.396</v>
+        <v>24.012</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>413.54</v>
+        <v>392.16</v>
       </c>
       <c r="D22" t="n">
-        <v>463.96</v>
+        <v>424.26</v>
       </c>
       <c r="E22" t="n">
-        <v>3.964</v>
+        <v>4.564</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>387.72</v>
+        <v>395.44</v>
       </c>
       <c r="D23" t="n">
-        <v>427.88</v>
+        <v>490.5</v>
       </c>
       <c r="E23" t="n">
-        <v>3.272</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -888,51 +888,51 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>427.88</v>
+        <v>424.26</v>
       </c>
       <c r="D24" t="n">
-        <v>512.88</v>
+        <v>459.76</v>
       </c>
       <c r="E24" t="n">
-        <v>0.852</v>
+        <v>2.144</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>512.88</v>
+        <v>249.06</v>
       </c>
       <c r="D25" t="n">
-        <v>612.58</v>
+        <v>298.42</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>9.488</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>612.58</v>
+        <v>490.5</v>
       </c>
       <c r="D26" t="n">
-        <v>666.4</v>
+        <v>562.6</v>
       </c>
       <c r="E26" t="n">
-        <v>26.808</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="27">
@@ -941,33 +941,33 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>495.84</v>
+        <v>298.42</v>
       </c>
       <c r="D27" t="n">
-        <v>558.24</v>
+        <v>373.12</v>
       </c>
       <c r="E27" t="n">
-        <v>0.756</v>
+        <v>5.108</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>558.24</v>
+        <v>530.84</v>
       </c>
       <c r="D28" t="n">
-        <v>663.13</v>
+        <v>601.5700000000001</v>
       </c>
       <c r="E28" t="n">
         <v>30</v>
@@ -975,135 +975,135 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>393.74</v>
+        <v>601.5700000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>450</v>
+        <v>661.17</v>
       </c>
       <c r="E29" t="n">
-        <v>9.32</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>285.18</v>
+        <v>562.6</v>
       </c>
       <c r="D30" t="n">
-        <v>336.3</v>
+        <v>607.46</v>
       </c>
       <c r="E30" t="n">
-        <v>8.16</v>
+        <v>1.364</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>663.13</v>
+        <v>607.46</v>
       </c>
       <c r="D31" t="n">
-        <v>701.9299999999999</v>
+        <v>681.63</v>
       </c>
       <c r="E31" t="n">
-        <v>26.82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>562.6</v>
+        <v>373.12</v>
       </c>
       <c r="D32" t="n">
-        <v>625.5</v>
+        <v>428.12</v>
       </c>
       <c r="E32" t="n">
-        <v>26.88</v>
+        <v>2.248</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>463.96</v>
+        <v>605.45</v>
       </c>
       <c r="D33" t="n">
-        <v>501.86</v>
+        <v>650.61</v>
       </c>
       <c r="E33" t="n">
-        <v>1.804</v>
+        <v>21.636</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>501.86</v>
+        <v>359.7</v>
       </c>
       <c r="D34" t="n">
-        <v>570.15</v>
+        <v>417.34</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>2.796</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>570.15</v>
+        <v>428.12</v>
       </c>
       <c r="D35" t="n">
-        <v>625.87</v>
+        <v>481.02</v>
       </c>
       <c r="E35" t="n">
-        <v>27.088</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1112,55 +1112,55 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>701.9299999999999</v>
+        <v>481.02</v>
       </c>
       <c r="D36" t="n">
-        <v>756.73</v>
+        <v>552.74</v>
       </c>
       <c r="E36" t="n">
-        <v>23.96</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>625.5</v>
+        <v>459.76</v>
       </c>
       <c r="D37" t="n">
-        <v>684.8</v>
+        <v>561.87</v>
       </c>
       <c r="E37" t="n">
-        <v>23.58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>336.3</v>
+        <v>561.87</v>
       </c>
       <c r="D38" t="n">
-        <v>383.9</v>
+        <v>617.59</v>
       </c>
       <c r="E38" t="n">
-        <v>5.52</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="39">
@@ -1169,36 +1169,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>684.8</v>
+        <v>661.17</v>
       </c>
       <c r="D39" t="n">
-        <v>738.98</v>
+        <v>708.29</v>
       </c>
       <c r="E39" t="n">
-        <v>20.772</v>
+        <v>24.108</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>625.87</v>
+        <v>417.34</v>
       </c>
       <c r="D40" t="n">
-        <v>665.39</v>
+        <v>508.25</v>
       </c>
       <c r="E40" t="n">
-        <v>24.756</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
@@ -1207,55 +1207,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>383.9</v>
+        <v>508.25</v>
       </c>
       <c r="D41" t="n">
-        <v>453.18</v>
+        <v>576.15</v>
       </c>
       <c r="E41" t="n">
-        <v>2.192</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>450</v>
+        <v>576.15</v>
       </c>
       <c r="D42" t="n">
-        <v>494.96</v>
+        <v>628.35</v>
       </c>
       <c r="E42" t="n">
-        <v>6.944</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>4</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>pond14</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>666.4</v>
-      </c>
-      <c r="D43" t="n">
-        <v>707.38</v>
-      </c>
-      <c r="E43" t="n">
-        <v>23.84</v>
+        <v>23.8</v>
       </c>
     </row>
   </sheetData>
